--- a/Testdata/TC_36.xlsx
+++ b/Testdata/TC_36.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ER0AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE3d1OZjaJKr3yLVkLO45sh0z2BZW7K3GTcrfpqk7it0UCLVoWIYRm0XIVT4uQGEawKy0zXP7LapIZnvgLnLr0zXZ23GEUTbrO+U7VqVPnVhX07s2MGlckYn4Y7FfsmlUxSOCGnh9c7Fdifl61H1fedVDnxiX0GEd4RjiADZAK2N4N8/crU87ne6Z5fX1du96qhdGFWbcs23zS743cKZnhqh8wjgOXVFIp7+1SFQe1vFmfcOxhjpXkfqU76tZaxHfbQOvjAF+QqNaMmR8QxjoB97lPmJCMCOak1e5/R23Mqdce12xkrtAzZDP2qadwBaSiaxwsS8b+jDh1y96pWjvVLXts7e5Z9p5Vr+3s1t9PBFMg6mHGRyS68l1JGHE8m0txa2fLtnYt26ojcy0I5soM4KAB9YbkymfEaxFKWSmLmPoAGy6HXZczpoXMnKye6OEqHEZ4Ph37nJJyagz7TWMWaF2ySRx0EEbEBfs9SKUjcj2ItFnH8x5wx1M/4os2XpSe64SRaDAXRion6qB2GPAGJRE/mcNZEw9cARgOj2KCzHuYmVDbZy58+0FMPOccU5YXKjDRaRhdsjl2yRHEsSnmuA5oiD1wOO4z7rvZoisMdByFc5gRFm+G1DuAWTV4DSOduRuAicWyzTC8zLRbx0TyVOX5wpnOME/gK3Q0mobXg4AuRvGEuZE/IV67maDX8pAISC3dihkPZ6BFRkKKlqMs4B8E4DIZtYnrzzA9pmBE5mzBLAUCasQ8PPd5K6TxLGCJTktUdAo7GpObdIfpGA3gcANh9DDoBglemXktqygwDK/TNVcZ0gg5coO5yXGvMpbBbaAlx7fKkScidnngU6gP+bPIUYteMZoSwte6hOIgkQoPRMVxGpQiMxsicEtwbVDDsaBoVOXP2LL25A8sm7JRJ/DuxyVMdBTPBhMI3yu5IccG3hIJwRZok+LgEqinPp8eNRLV13CQ2vC9+FUegkCdU7yQ5NQoeRrqBi6NPaLivxucS48UuqkzvJeNVkg9CGkH4WAxXswhDTN/j8PHfgUK8x7jEZT+iuOGccCjhUgUyNTQt8mweBLIBTDdWOY8It+PoeNYHMSB2wq9zVfzlHVOAp9vrmEYRyr7bS4irScSYczaRKQUmeM3lnfL7IlFpeCzgMzCwHc3tzYYWWjvPWAjLImqjSWIiq+N8RTKuKpyItY3FougXYS6VmqZBmOh60tn1eHh5eTNe0KmTc5xTKFV41BRL9JUu0xGDXa5jMmT0ElEk4TniEaYQSfserOaC72C6PZqbjgTBBMa0NMRMvN40fC4pBNc9HBwEUNLkeaVZXqabkU5HEc4YGI7aQexlHnXg1CSp1Rn46wmO2QuQdCYzOZhhGkfbOIfaI/TnRE0HX3Mp3oEVYwSN7GvmYmmUkWlEp3fBpPlSO1AxLrOkEtECRL+qdrtDJPRkNhiHyKStjD1J5FKqEnRXseDs8rawCT1is2VbAkT88OVC+rst8lC9OHZQNOlt9oJQ/muyKHOaLi9U39kbcHdQo6R3PGQYGp0II45MbrBFWF8BmJ7xpAw34MvH9M94z0yIT7UP2kiXYFKS+fl0EGS4qUqDdC3SCkCoLO48KGCrAJTTibgnBEc0UUOqLbaC13A3f3437e/ef7qxWd3Hz1988UP//uPX736589un/0IPu7++rfbj3+ptqnAaIwnlEiFxs2dHWtrG/wsJSFhXFM2wV7sckk7O5O9bzpG+gonB61Ot3XYa8pUkhITcVVNTHE7XIRxNhypTciF5JGaiScoiDNOUpMeF7i56uSI29oVKaLz/PsElS1ev/zs9cs/3yutDZa1Wfbu7qOqXX9rFwb3XnsFl3ZhvUL6F+DtqvWoWq/nwEsYNFS5P7VT13Pktbq+ZdlpGvdSR14HWmbpmcb4wlySU6SW6oxSF8iPE6Z0/DGESMpWoZAbaBf94idv/vK0gNLW1ZTiLKCc7GDEYmYykFMfDcfGaHAybHWMcWck/CTj5XBq8q8B69XTeCo4VRDEmH7LgLoOdcyowN2nYoTnBsHu1FhAJObisOBs66hqoQdOuazlYRTGc3UiOYGMugaZZpO1EmtyjeRJe64knYy1Bq50vf375+sE9EbaWS+bvnTkaajAUaQcX0ftp/969eWHr168uHv+89svf1CYQa+TPgCAn0M05Yep20PK0/VmiYJOR9KYl9Z3c/VFE8Ud6jj0A84c+7G8PukRAlFbzCZ/o+4MSp6cWNoL6EsU9B5mnRuuA9s5QmaRAHrOMVTbMLtlpgSVwzO7/ue3v7v79ed3nzx/8+Gfbj/64+3Hn7x++fs3z/6gou7u6fO7nz7TWX65EEhdxN1V9X+GfAlxDRGNhqjdxlcf/MIIQm5Ay2HEMiN99cGnucmEorI5yWaGbi5VpKjCCjQvLOSMnCqpDgW5VEQ1AC1RwrZShC5i4dx3s0Xer4qpRNxJxje642rMiBFCN/VN2EkRnAlvKqdFVEk9fseq23XNVdqILUwwy5n+kIYTaDIShnxqWIIUpL5eIMPK9Q57g2ajl0GUEoPII5FwQ/WBkpZSlJQuS0aJq+UowIXGz42peB1aga2y0plzaczUzyznDU+kv/WvFAUEasVRpBqiQL/aj+I5NMPJY9z9fPlAmet/j1Svmu+Is3G3XeTDOMeFQlhkC4Lky9SkWSpNdZl40VHt7JEwTTYEXuFRE8yhH+ZVp3UFfWVkirzTiaIwWpt8Mk4C60MnDRnFzCyeYuSZqq7by84qISQJL/1Qlz69w7BNKOHlXq3NTLofXj1YFs6+rGiXDainjVnu6pGaJZsg/3QvHOX/fblXztaIImisxFNf6af25M46hKtuSW3UVqSguAHC6vot/MCPGH8iMoH+UpSzlHKmOtQn4sKlPuT4zNnWf8EBgJmf3SyomYQuV39ACWnPn/klr4VWEt/FScCW87lq4brlPEWUliNyAw1mbgZIipPvQdlQTyhlZlMOC7k0lRfPlsy/mPKyir0zwcQjE6vqTki9uu1ZO9VdQraqtg3/Y7det6xH4tFTTw6ZwyfXJRcxkwPL/rDp/A+3LVrkER0AAA==</t>
+          <t>Ch8AAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAqb3oYkkYb0CRlEOUukCkaisvxXJ3KE01nGV3ZiXxLQUSpEhTFEXhFOkVfUpRoK7RJkBq9/JfAkt2n/oXeuayN5KKtaohwDvnNmfOnDnnmyF652pCrQuccBKzhw13xWlYmIVxRNjpw0Yqxk13o/GOj7pXIaaHQRJMsABhC7QY377i5GHjTIjptm1fXl6uXK6uxMmp7TmOaz/Z6w/CMzwJmoRxEbAQN3Kt6O1aDR+1o8keFkEUiEBrPmz0Br2VNiZhB2h7AQtOcbKyk3LCMOddJoggmEvNBAcCtzt739ML872VjRUX2Qv0QnInJTTSchVJTTdyMC0ekgn2Pcdzms5m01sbuu62u7ntOiubDzbfyxRzQdQPuBjg5IKEijAQwWSq1J1Nb8113U3XQfZSIbBVBMBHBzQ6wheE46iNKeW1ImKbDWyFAlZdL5jgXknXGLq/C4+SYHo2JILiuuq7cYJDCNS95t7HlweJid9w2gfu8IwkYtYJZrVtHXOcHExlNOqp+qgTM9GiOBHHU9hUHMGeA8MXSYqRfQuzUOoQHsI3YSmO/HFAeVmpwkSP4+ScT4MQ78OBtaWNS0bjIILMEoQLEhaTLjDQYRJPwSJMvhPTaBesGuEljNxyj0GI5bQ7cXxeeLeMiVQOqGyAPZ0EIhNfoKPBWXx5wOhskI54mJARjjo7mfRSHpInz2i3Uy7iCXhRkJCmlSgz+AcnbZ6MOjgkk4AeUggi91fBSoWAWqmIx0S0Y5pOGM98mqOix7CiIb7KV5iP0QFsLpNBj1mPZfI6zEtZVYWj+DKfc5GhglAit3iYbfciY164A7Rs+xY5akfkKncJhUZQ3osStZoVgzOMxdKU0Bwka96ubC1+i1JkF0MEaQmpDW74DnSHpvobOs62+oNpczbqsuh2uYyJ9tPJwQiO74VakC9r7xwJwRLoDg3YOVAfE3G238pcX8JBesG3yi/yEBzUKQ1mipwHpUxDPRbSNML6/PfYWGWk9E3v4a1stEDqw5H2UcBmw9kU6i0n2wI+HjagA29zkUCPb/hhnDKRzGShQLYRfZsOT0dMTRDQO+uME/zDFKDFbDdlYTuO7j5bpKNzzIi4u4dxmujqd3cVFT1ZCFPewbKkqBp/Z/2wzpp4Ukt8wvAkZiS8e7QhyNL76B4L4dmpurMG1ufrzvIU2rjucvKs31ktAVwIfa3WNC3O45CoZDXHIyrp27ccmQ4eBykFTCago57mpXaejFr8fF6mTELHCc0Kni8RLwfIG0aTlRCwgoR1K2E8kQQbkObjAbLL8hLwhLjLTvsBO00BUuR1ZZ6el1vZDodJwLhcTo4g5irvciGU1SmNbPzFYofsORE0xJNpnAR0D2JCdk3GGWQEoGMvEGdmBF2M4jCLr12o5lpVpzKf3yam2pFegTzrpkLOEZWQzE+NqwuZgobkEvfgRNJ2QMko0QU1a9rLeLBXBQzMSq9cXE1ImIUf7lbQZ7+LZxJwFwNDV9nqZgydu7KG+oOjtU1v3Vn1AMPIMVIrPsIBtbpwjgW2euwCczEBtW3rCHMSwRcJ6Lb1Lh5hAv1Phch0oNraZT20m5V45UoL/K1SqgKALE4JdJBFwZxTKPgnOEjorCSol9qPQ5C7+fG/r3/z/NWLz28+fvrmyw/++49fvfrnz66ffQgfN3/92/Unv9TL1MJoGIwoVg4NdzY3ndU1yLOchGRwbQWCozQUinZyorBvPkbmrqYG7W6v/ai/o0pJTszUdTex5TVwFqfFcKAXoSZSW2pnmaBF/GFWmsy4wi11J19eyy5wVbrMv01Rx+L1y89fv/zzrdomYAXMcre21puu91YU5jmuuyCXo7B+pfxL4bWms970vJLwnAw60rU/j1Mv8lddZ8vxVh03L+NRnsjLhOZZxtIwOLXn9DSprZFRngLlccZUiT+EI5Kz9VEoDUyKfvmTN395WpEy0TWUqhVwTiEYOZmdDZTp/aOhNTg4Pmp3rWF3IPOk4JXktPFvEDaz5+epklSMpQH9jgV9HfqY1YC7T8OKxxYOwjNrBiexdA4rybaMqie6p8l5Lx8lcTrVO1JSKKhLJPNqslRjSa1RPBXPhaJTsJaIa1+v//7FMgWzkE6BZf2jvR1rwvK8VDRU4WhSiW9O7Wf/evXVR69evLh5/vPrr35UsWDmyR8AIM/hNJWHedpDyTP9Zo6CHg9UMM+d75f6iyHKO9RhTJjgvruhrk9mhEDVldbU/6g3gZanDKt4AX2Ogt4NePdKmIPt7yO7SgA/pwF027i4ZeYEXcOLuP7nt7+7+fUXN58+f/PRn64//uP1J5++fvn7N8/+oE/dzdPnNz99Zqr8fCNQvsi7q8Z/lnoJCS15Gi3Zu62v3/+FxWJhAeSwUlWRvn7/s5Ix6agCJ4VlQHO5I1UXFkTLylLPKrmS+1DRy1U0AGjLFraaS5gmFk9JWEzyXlOakudOMb7VGzZTjq0Y0NS3YSVV4UL5rnpGRbfUwweO53qGq72RSxgFvBT6RzQeAcjIGOqpYU6kovXNCoWsmu9R/2Cn1S9EtBMHSYQTmYb6A/V4Biqz9CpRgAtgL0ypfBFaEFtkoeyrVLps87QybkWy5C1/mahIoHaaJBoEMfMkP0inAICzB7jb+epRsoR59zU+LaPgYtzrVPkwLnGh+VXZkqD4qhwZli5NPS5fcTSE3ZehKYbAqzxkQjjMq7tGVxeAJRNb1ppuksTJ0oJTcDKxPUDPUEXsIuK5jC2n1Eg7KvYqI2RFLv/QFz2zwriDKRa1n6Qz7b344t66sPd1VXv8gEYmmPWuG3lYCgPld3mZKHWdaSUJwCb5kFf7Ib1P2Hmv3ur9tdHIWfceuOPxaDzGzmjd9UYbq1suHo03H2yMATgqo/L2KU3Im4u8u9WbBMBiVb24Yh/BpbumNR1gpSjvohApdSBNYc/HaJckXDyRJcp8acpJTjnR0PmJ9E9/qPGJv+ZpAgjY5cnsitdZfRH6J5yY9smE1LyvOlkRqhqBNJhONbasu6HQ8/bxFSDfkgWo1qMfQD/Tbzt1rOlTBUU+189sDdJRbXN2pnwIfJlY99PuRoDL7q+tfhAh9P9wQCGv+5roMU5Oz0TdffW2tlbxBvaa3jgMm2swaEI3HjWjYLzlOs54NVr35GO2MQ7dgeDLmpPInkI43Cvq69lzv2j7/wPAYMisCh8AAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -815,4 +815,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>43</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C14B9FCA-CC0A-4E36-A587-EB5DF80E3692}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_36.xlsx
+++ b/Testdata/TC_36.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Ch8AAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAqb3oYkkYb0CRlEOUukCkaisvxXJ3KE01nGV3ZiXxLQUSpEhTFEXhFOkVfUpRoK7RJkBq9/JfAkt2n/oXeuayN5KKtaohwDvnNmfOnDnnmyF652pCrQuccBKzhw13xWlYmIVxRNjpw0Yqxk13o/GOj7pXIaaHQRJMsABhC7QY377i5GHjTIjptm1fXl6uXK6uxMmp7TmOaz/Z6w/CMzwJmoRxEbAQN3Kt6O1aDR+1o8keFkEUiEBrPmz0Br2VNiZhB2h7AQtOcbKyk3LCMOddJoggmEvNBAcCtzt739ML872VjRUX2Qv0QnInJTTSchVJTTdyMC0ekgn2Pcdzms5m01sbuu62u7ntOiubDzbfyxRzQdQPuBjg5IKEijAQwWSq1J1Nb8113U3XQfZSIbBVBMBHBzQ6wheE46iNKeW1ImKbDWyFAlZdL5jgXknXGLq/C4+SYHo2JILiuuq7cYJDCNS95t7HlweJid9w2gfu8IwkYtYJZrVtHXOcHExlNOqp+qgTM9GiOBHHU9hUHMGeA8MXSYqRfQuzUOoQHsI3YSmO/HFAeVmpwkSP4+ScT4MQ78OBtaWNS0bjIILMEoQLEhaTLjDQYRJPwSJMvhPTaBesGuEljNxyj0GI5bQ7cXxeeLeMiVQOqGyAPZ0EIhNfoKPBWXx5wOhskI54mJARjjo7mfRSHpInz2i3Uy7iCXhRkJCmlSgz+AcnbZ6MOjgkk4AeUggi91fBSoWAWqmIx0S0Y5pOGM98mqOix7CiIb7KV5iP0QFsLpNBj1mPZfI6zEtZVYWj+DKfc5GhglAit3iYbfciY164A7Rs+xY5akfkKncJhUZQ3osStZoVgzOMxdKU0Bwka96ubC1+i1JkF0MEaQmpDW74DnSHpvobOs62+oNpczbqsuh2uYyJ9tPJwQiO74VakC9r7xwJwRLoDg3YOVAfE3G238pcX8JBesG3yi/yEBzUKQ1mipwHpUxDPRbSNML6/PfYWGWk9E3v4a1stEDqw5H2UcBmw9kU6i0n2wI+HjagA29zkUCPb/hhnDKRzGShQLYRfZsOT0dMTRDQO+uME/zDFKDFbDdlYTuO7j5bpKNzzIi4u4dxmujqd3cVFT1ZCFPewbKkqBp/Z/2wzpp4Ukt8wvAkZiS8e7QhyNL76B4L4dmpurMG1ufrzvIU2rjucvKs31ktAVwIfa3WNC3O45CoZDXHIyrp27ccmQ4eBykFTCago57mpXaejFr8fF6mTELHCc0Kni8RLwfIG0aTlRCwgoR1K2E8kQQbkObjAbLL8hLwhLjLTvsBO00BUuR1ZZ6el1vZDodJwLhcTo4g5irvciGU1SmNbPzFYofsORE0xJNpnAR0D2JCdk3GGWQEoGMvEGdmBF2M4jCLr12o5lpVpzKf3yam2pFegTzrpkLOEZWQzE+NqwuZgobkEvfgRNJ2QMko0QU1a9rLeLBXBQzMSq9cXE1ImIUf7lbQZ7+LZxJwFwNDV9nqZgydu7KG+oOjtU1v3Vn1AMPIMVIrPsIBtbpwjgW2euwCczEBtW3rCHMSwRcJ6Lb1Lh5hAv1Phch0oNraZT20m5V45UoL/K1SqgKALE4JdJBFwZxTKPgnOEjorCSol9qPQ5C7+fG/r3/z/NWLz28+fvrmyw/++49fvfrnz66ffQgfN3/92/Unv9TL1MJoGIwoVg4NdzY3ndU1yLOchGRwbQWCozQUinZyorBvPkbmrqYG7W6v/ai/o0pJTszUdTex5TVwFqfFcKAXoSZSW2pnmaBF/GFWmsy4wi11J19eyy5wVbrMv01Rx+L1y89fv/zzrdomYAXMcre21puu91YU5jmuuyCXo7B+pfxL4bWms970vJLwnAw60rU/j1Mv8lddZ8vxVh03L+NRnsjLhOZZxtIwOLXn9DSprZFRngLlccZUiT+EI5Kz9VEoDUyKfvmTN395WpEy0TWUqhVwTiEYOZmdDZTp/aOhNTg4Pmp3rWF3IPOk4JXktPFvEDaz5+epklSMpQH9jgV9HfqY1YC7T8OKxxYOwjNrBiexdA4rybaMqie6p8l5Lx8lcTrVO1JSKKhLJPNqslRjSa1RPBXPhaJTsJaIa1+v//7FMgWzkE6BZf2jvR1rwvK8VDRU4WhSiW9O7Wf/evXVR69evLh5/vPrr35UsWDmyR8AIM/hNJWHedpDyTP9Zo6CHg9UMM+d75f6iyHKO9RhTJjgvruhrk9mhEDVldbU/6g3gZanDKt4AX2Ogt4NePdKmIPt7yO7SgA/pwF027i4ZeYEXcOLuP7nt7+7+fUXN58+f/PRn64//uP1J5++fvn7N8/+oE/dzdPnNz99Zqr8fCNQvsi7q8Z/lnoJCS15Gi3Zu62v3/+FxWJhAeSwUlWRvn7/s5Ix6agCJ4VlQHO5I1UXFkTLylLPKrmS+1DRy1U0AGjLFraaS5gmFk9JWEzyXlOakudOMb7VGzZTjq0Y0NS3YSVV4UL5rnpGRbfUwweO53qGq72RSxgFvBT6RzQeAcjIGOqpYU6kovXNCoWsmu9R/2Cn1S9EtBMHSYQTmYb6A/V4Biqz9CpRgAtgL0ypfBFaEFtkoeyrVLps87QybkWy5C1/mahIoHaaJBoEMfMkP0inAICzB7jb+epRsoR59zU+LaPgYtzrVPkwLnGh+VXZkqD4qhwZli5NPS5fcTSE3ZehKYbAqzxkQjjMq7tGVxeAJRNb1ppuksTJ0oJTcDKxPUDPUEXsIuK5jC2n1Eg7KvYqI2RFLv/QFz2zwriDKRa1n6Qz7b344t66sPd1VXv8gEYmmPWuG3lYCgPld3mZKHWdaSUJwCb5kFf7Ib1P2Hmv3ur9tdHIWfceuOPxaDzGzmjd9UYbq1suHo03H2yMATgqo/L2KU3Im4u8u9WbBMBiVb24Yh/BpbumNR1gpSjvohApdSBNYc/HaJckXDyRJcp8acpJTjnR0PmJ9E9/qPGJv+ZpAgjY5cnsitdZfRH6J5yY9smE1LyvOlkRqhqBNJhONbasu6HQ8/bxFSDfkgWo1qMfQD/Tbzt1rOlTBUU+189sDdJRbXN2pnwIfJlY99PuRoDL7q+tfhAh9P9wQCGv+5roMU5Oz0TdffW2tlbxBvaa3jgMm2swaEI3HjWjYLzlOs54NVr35GO2MQ7dgeDLmpPInkI43Cvq69lzv2j7/wPAYMisCh8AAA==</t>
+          <t>ER0AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE3d1OZjaJKr3yLVkLO45sh0z2BZW7K3GTcrfpqk7it0UCLVoWIYRm0XIVT4uQGEawKy0zXP7LapIZnvgLnLr0zXZ23GEUTbrO+U7VqVPnVhX07s2MGlckYn4Y7FfsmlUxSOCGnh9c7Fdifl61H1fedVDnxiX0GEd4RjiADZAK2N4N8/crU87ne6Z5fX1du96qhdGFWbcs23zS743cKZnhqh8wjgOXVFIp7+1SFQe1vFmfcOxhjpXkfqU76tZaxHfbQOvjAF+QqNaMmR8QxjoB97lPmJCMCOak1e5/R23Mqdce12xkrtAzZDP2qadwBaSiaxwsS8b+jDh1y96pWjvVLXts7e5Z9p5Vr+3s1t9PBFMg6mHGRyS68l1JGHE8m0txa2fLtnYt26ojcy0I5soM4KAB9YbkymfEaxFKWSmLmPoAGy6HXZczpoXMnKye6OEqHEZ4Ph37nJJyagz7TWMWaF2ySRx0EEbEBfs9SKUjcj2ItFnH8x5wx1M/4os2XpSe64SRaDAXRion6qB2GPAGJRE/mcNZEw9cARgOj2KCzHuYmVDbZy58+0FMPOccU5YXKjDRaRhdsjl2yRHEsSnmuA5oiD1wOO4z7rvZoisMdByFc5gRFm+G1DuAWTV4DSOduRuAicWyzTC8zLRbx0TyVOX5wpnOME/gK3Q0mobXg4AuRvGEuZE/IV67maDX8pAISC3dihkPZ6BFRkKKlqMs4B8E4DIZtYnrzzA9pmBE5mzBLAUCasQ8PPd5K6TxLGCJTktUdAo7GpObdIfpGA3gcANh9DDoBglemXktqygwDK/TNVcZ0gg5coO5yXGvMpbBbaAlx7fKkScidnngU6gP+bPIUYteMZoSwte6hOIgkQoPRMVxGpQiMxsicEtwbVDDsaBoVOXP2LL25A8sm7JRJ/DuxyVMdBTPBhMI3yu5IccG3hIJwRZok+LgEqinPp8eNRLV13CQ2vC9+FUegkCdU7yQ5NQoeRrqBi6NPaLivxucS48UuqkzvJeNVkg9CGkH4WAxXswhDTN/j8PHfgUK8x7jEZT+iuOGccCjhUgUyNTQt8mweBLIBTDdWOY8It+PoeNYHMSB2wq9zVfzlHVOAp9vrmEYRyr7bS4irScSYczaRKQUmeM3lnfL7IlFpeCzgMzCwHc3tzYYWWjvPWAjLImqjSWIiq+N8RTKuKpyItY3FougXYS6VmqZBmOh60tn1eHh5eTNe0KmTc5xTKFV41BRL9JUu0xGDXa5jMmT0ElEk4TniEaYQSfserOaC72C6PZqbjgTBBMa0NMRMvN40fC4pBNc9HBwEUNLkeaVZXqabkU5HEc4YGI7aQexlHnXg1CSp1Rn46wmO2QuQdCYzOZhhGkfbOIfaI/TnRE0HX3Mp3oEVYwSN7GvmYmmUkWlEp3fBpPlSO1AxLrOkEtECRL+qdrtDJPRkNhiHyKStjD1J5FKqEnRXseDs8rawCT1is2VbAkT88OVC+rst8lC9OHZQNOlt9oJQ/muyKHOaLi9U39kbcHdQo6R3PGQYGp0II45MbrBFWF8BmJ7xpAw34MvH9M94z0yIT7UP2kiXYFKS+fl0EGS4qUqDdC3SCkCoLO48KGCrAJTTibgnBEc0UUOqLbaC13A3f3437e/ef7qxWd3Hz1988UP//uPX736589un/0IPu7++rfbj3+ptqnAaIwnlEiFxs2dHWtrG/wsJSFhXFM2wV7sckk7O5O9bzpG+gonB61Ot3XYa8pUkhITcVVNTHE7XIRxNhypTciF5JGaiScoiDNOUpMeF7i56uSI29oVKaLz/PsElS1ev/zs9cs/3yutDZa1Wfbu7qOqXX9rFwb3XnsFl3ZhvUL6F+DtqvWoWq/nwEsYNFS5P7VT13Pktbq+ZdlpGvdSR14HWmbpmcb4wlySU6SW6oxSF8iPE6Z0/DGESMpWoZAbaBf94idv/vK0gNLW1ZTiLKCc7GDEYmYykFMfDcfGaHAybHWMcWck/CTj5XBq8q8B69XTeCo4VRDEmH7LgLoOdcyowN2nYoTnBsHu1FhAJObisOBs66hqoQdOuazlYRTGc3UiOYGMugaZZpO1EmtyjeRJe64knYy1Bq50vf375+sE9EbaWS+bvnTkaajAUaQcX0ftp/969eWHr168uHv+89svf1CYQa+TPgCAn0M05Yep20PK0/VmiYJOR9KYl9Z3c/VFE8Ud6jj0A84c+7G8PukRAlFbzCZ/o+4MSp6cWNoL6EsU9B5mnRuuA9s5QmaRAHrOMVTbMLtlpgSVwzO7/ue3v7v79ed3nzx/8+Gfbj/64+3Hn7x++fs3z/6gou7u6fO7nz7TWX65EEhdxN1V9X+GfAlxDRGNhqjdxlcf/MIIQm5Ay2HEMiN99cGnucmEorI5yWaGbi5VpKjCCjQvLOSMnCqpDgW5VEQ1AC1RwrZShC5i4dx3s0Xer4qpRNxJxje642rMiBFCN/VN2EkRnAlvKqdFVEk9fseq23XNVdqILUwwy5n+kIYTaDIShnxqWIIUpL5eIMPK9Q57g2ajl0GUEoPII5FwQ/WBkpZSlJQuS0aJq+UowIXGz42peB1aga2y0plzaczUzyznDU+kv/WvFAUEasVRpBqiQL/aj+I5NMPJY9z9fPlAmet/j1Svmu+Is3G3XeTDOMeFQlhkC4Lky9SkWSpNdZl40VHt7JEwTTYEXuFRE8yhH+ZVp3UFfWVkirzTiaIwWpt8Mk4C60MnDRnFzCyeYuSZqq7by84qISQJL/1Qlz69w7BNKOHlXq3NTLofXj1YFs6+rGiXDainjVnu6pGaJZsg/3QvHOX/fblXztaIImisxFNf6af25M46hKtuSW3UVqSguAHC6vot/MCPGH8iMoH+UpSzlHKmOtQn4sKlPuT4zNnWf8EBgJmf3SyomYQuV39ACWnPn/klr4VWEt/FScCW87lq4brlPEWUliNyAw1mbgZIipPvQdlQTyhlZlMOC7k0lRfPlsy/mPKyir0zwcQjE6vqTki9uu1ZO9VdQraqtg3/Y7det6xH4tFTTw6ZwyfXJRcxkwPL/rDp/A+3LVrkER0AAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -815,37 +815,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>43</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C14B9FCA-CC0A-4E36-A587-EB5DF80E3692}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>